--- a/zero-ambient/src/main/resources/plugin/ambient/oob/menu/BANNER-1005@zero.extra-EXTRA.xlsx
+++ b/zero-ambient/src/main/resources/plugin/ambient/oob/menu/BANNER-1005@zero.extra-EXTRA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-ambient/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-extension/zero-ambient/src/main/resources/plugin/ambient/oob/menu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B065F43-28D8-834F-9C8A-FA04B8747210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEB157D-1015-E944-AA66-C9DE50B49731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47840" yWindow="-780" windowWidth="33320" windowHeight="15900" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-47480" yWindow="5060" windowWidth="33320" windowHeight="15900" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -88,9 +88,6 @@
     <t>88555a69-9445-4869-a022-182f00edeb92</t>
   </si>
   <si>
-    <t>40c7cf78-a1d8-40b3-9178-75a1d9aacaad</t>
-  </si>
-  <si>
     <t>c9cdbc63-5956-4118-a20d-9590163da08e</t>
   </si>
   <si>
@@ -102,14 +99,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>zero.extra.notify</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>帮助</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -122,19 +111,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>notification</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>code</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>JSON:action/menu.extra/zero.extra.help.json</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:action/menu.extra/zero.extra.notify.json</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -323,7 +304,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -608,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J7"/>
+  <dimension ref="A2:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="55.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -700,20 +681,20 @@
         <v>17</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -723,46 +704,23 @@
         <v>18</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
